--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9673857067.03405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004311028498746553</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.228162799332726</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9181636162882769</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-4.228162799332726</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5753807115.851252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005491794417882757</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.421686072523697</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9595423941875443</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.421686072523697</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5216967399.025534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003739952612387208</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.404514599557591</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9715157659027048</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.404514599557591</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4199571044.537888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004006062491455404</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.343257289683885</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7293918977323942</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.343257289683885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5618658697.458601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002657141914227503</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.082651753317951</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.115692309984496</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.082651753317951</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7786871686.392896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009341534286233536</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.07522710335068677</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.416329403512843</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.09620145536885796</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.416329403512843</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6699254493.754585</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003314730778918521</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.3559332927354</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9606370493219196</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.3559332927354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6118504645.232446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003510453821403364</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.495828535538408</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9540307859226115</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.495828535538408</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4097879871.567965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003985285628782197</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.418248948545382</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9876091826724334</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.418248948545382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5105988598.899648</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001027487590335587</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7632761866647653</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.457705894944393</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8580876222232167</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.457705894944393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8885031742.171171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001998828684405919</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.539611711083042</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.011788706348504</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.539611711083042</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4497654557.298835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004448674863172017</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3893350394161272</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.873899287730359</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7454160941467088</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.873899287730359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7167325383.375648</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003254192320370756</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9392784366014024</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.472243203222932</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.150450955216019</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-4.472243203222932</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8103386027.431568</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004194154029951863</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1592326133788032</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.166145529482523</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.1424041663947964</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.166145529482523</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5918376863.618972</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005189987119806944</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.550379104698474</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9008097566372837</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.550379104698474</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6950285565.316858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002351569540924979</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.366575398575382</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.961730458505232</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.366575398575382</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4735599043.958552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001117528588206759</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.579968032534229</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9865256048835735</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.579968032534229</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4049070030.756689</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002023301088207641</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.48748496005929</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9169979812777972</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.48748496005929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4349897978.231746</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001387768844081041</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.384535130296651</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8429283347753915</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.384535130296651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5614527020.595303</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005915368361742559</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.912711835027521</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.071374000579596</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.087789215450035</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.071374000579596</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5540847269.362275</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003818030959834802</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.731578670519762</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9019344562090854</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.731578670519762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6741006468.660361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00141676599338246</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.382648035026711</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9407383926300942</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.382648035026711</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8530896314.279008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003689773153156395</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08590291226798</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5250659728.794621</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00309039169777421</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.541714915912428</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9169979812777972</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.541714915912428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4614400148.713411</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009231085778821353</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8753242517890548</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942154</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.313017816345104</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.059088664086234</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.313017816345104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5427633259.73565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003931154392657862</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.50542891179282</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9374007226523918</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.50542891179282</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5813592099.164111</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005411017810681004</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.53938137178184</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8176803010931469</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.53938137178184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6647259353.987189</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00158400557603612</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.552572222942977</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.006581698055643</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.552572222942977</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5966381974.237658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00338519822720662</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.31749165976128</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9340113048821712</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.31749165976128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7215019302.034443</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002708779284464866</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.978837960422001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9385410185160995</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.978837960422001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3540022765.046843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001098992340903394</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.734431939939444</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9704333821086122</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.734431939939444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5088336553.16405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002803385676569935</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.8094602403214728</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.541427529008185</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.02628649249487</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-5.541427529008185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7286112070.586582</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005447221424295879</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8794952060855684</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5810867914.002294</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002578388057110329</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.621703161654838</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9992276920362119</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.621703161654838</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5773343020.156483</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002992006816191224</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.509183218136234</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9385608332753338</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.509183218136234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4831921003.601022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004707844109807063</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.6206958338857</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.057498666286893</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-5.6206958338857</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4809537143.576887</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003698616891291012</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.823723848580655</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8675489910920926</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.823723848580655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>3927892595.81696</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002054872376320122</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.822278966333433</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.928348130763803</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.822278966333433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6520120370.628722</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004870938313357844</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.818091798072224</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.054495344710932</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.818091798072224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6135307428.954085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001440283301222242</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.468333095742236</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9485263640909354</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.468333095742236</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5309614013.66478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003491264339882312</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.345129465212771</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.015935098045844</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.345129465212771</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6657860692.782111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003414413914179956</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.566992685335401</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9562509102651282</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.566992685335401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7478947530.499255</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001723822285713963</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.601533091885734</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9540697716260685</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.601533091885734</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5084738048.770262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001362169031954104</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
         <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.730156676512197</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9897352000774908</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.730156676512197</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10150599429.30598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005535116549860409</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7.652905234006333</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.910054560619579</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-7.652905234006333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9603902678.327766</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002181879424546279</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9374594025640687</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>7.544938990153599</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.225739707743022</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-7.544938990153599</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8090860244.088768</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003605671263864643</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.67580671814145</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9960673559914189</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.67580671814145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5928045019.766647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003850984799015127</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.644695950724488</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8060295690698598</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.644695950724488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5376101990.789022</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002521583211008842</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.520232078381801</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.015935098045844</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.520232078381801</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5662457622.495993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004655490146807829</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.973315000355221</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9295395468419627</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.973315000355221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5280542494.096016</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001811618478519497</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.414004537438256</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8479228202115474</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.414004537438256</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5163247006.556678</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002790716948194705</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.496427056016504</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9192873143044422</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.496427056016504</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4259812931.054973</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003959876347743727</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.432597994718781</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7754606228684184</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.432597994718781</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8046803935.401366</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003020616465440714</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.438432609507323</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9540502789734759</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-5.438432609507323</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5347803826.408728</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002434573688226229</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.663491072535225</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9822550747865153</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.663491072535225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5442158808.157857</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004202814082626784</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.438868051247288</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8253110273550409</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.438868051247288</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5521335487.395016</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001797699388585959</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.074392494631082</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.704471190044527</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.074392494631082</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7778088813.546024</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003388456075596007</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.443703556850099</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8914273629179476</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.443703556850099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4076317579.899315</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004088520751669944</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8387456357874518</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.359451281812457</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.025326373341239</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.359451281812457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7186229913.129347</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004473680640280426</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.577406356563081</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9317980670277657</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.577406356563081</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6010256951.33666</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003585337205274994</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6.028620481391059</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9135328677644966</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-6.028620481391059</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8672229061.182764</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00428603537932349</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5.409557501035684</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.3779644730092272</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-5.409557501035684</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4236576740.283092</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003507364101850743</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.587240034572265</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9584270851948798</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.587240034572265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6853701531.582135</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004322037747414887</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2562766192045191</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.897935901293888</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6163176824627797</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.897935901293888</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5671112680.968246</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002526706795725345</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.548875308868405</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8215271618492342</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.548875308868405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5117099029.859108</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005567683320446898</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.715860774073674</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9418351571977769</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.715860774073674</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5843653858.030921</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002588037477539136</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.314102470667137</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7914864535144203</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.314102470667137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4461804828.036671</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008131019294018864</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.520220254469307</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9918566604333258</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.520220254469307</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7423128083.760631</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003405237583443044</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.444474724379177</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9496141339202347</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.444474724379177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4850632289.217124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003361977841263093</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.580887214702448</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8674846793927562</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.580887214702448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7224911063.819131</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001635918833701922</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.624690223941395</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.119281032283633</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.624690223941395</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7196176204.092302</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001393453692161818</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.609161568067673</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.013845678861752</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.609161568067673</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6281867697.087639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003940977831910075</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.563935863149336</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9496141339202347</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.563935863149336</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6997198971.889855</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004547784260710173</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9176552071570858</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.595686768774529</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.059715152134798</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.595686768774529</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4863156663.783476</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00264160204810022</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.570603151437574</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9374007226523918</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.570603151437574</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8065254005.230947</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005359686230101366</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.486956131903466</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9971405649554868</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.486956131903466</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7524576688.693666</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00349989654875006</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.484007543827259</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.961730458505232</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.484007543827259</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8399047081.875866</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002338858177791945</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.404531758581846</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9340312157358274</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.404531758581846</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5250412628.117867</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002387605691943572</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.778599979428698</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9833622704136687</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.778599979428698</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7105067951.935182</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004429063312684579</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.553956952208159</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.015916792419619</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.553956952208159</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6360666842.200955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004969549694968489</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
         <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9737706337660412</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.526455582039281</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.232474264241834</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.526455582039281</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9278032009.930943</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002291627630037713</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.41149179064248</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8663152563223718</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-4.41149179064248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7006026023.864197</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003864884289469542</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.454631230698442</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9693689747177036</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.454631230698442</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4440402734.983311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00355458121548195</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.42197654865406</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9317781084547053</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.42197654865406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7265424108.098786</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002071662538024546</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2273348530530828</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.745004617326432</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4882100924639725</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.745004617326432</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5088818938.82225</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001129859409855172</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.89062584026601</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9715540499838506</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.89062584026601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8079831080.732504</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004936106425410627</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.38073960302675</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8843042142368416</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-5.38073960302675</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7163603980.041772</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004787309037640515</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.011070379965411</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9031607168979909</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.011070379965411</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4738026183.065617</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00322890142585741</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.376792051255705</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9769096963544363</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-5.376792051255705</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7168588381.609647</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003347362156413904</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.495056530136375</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8699043266674054</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.495056530136375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3713037365.536542</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002759208444599658</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.979149653502661</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.001384757258312</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.979149653502661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>8114754420.841228</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001593311300468935</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.498656261254734</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9306495092722443</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-4.498656261254734</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7054305007.243848</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001096798526823438</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2175371556122368</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>7.680531386581499</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.5995288249838634</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-7.680531386581499</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6328319427.937653</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002726786666829161</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.415382883992275</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9054644967087114</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.415382883992275</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8668140536.540285</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002485357999881907</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.05186463093876604</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.956384821158899</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.4356895018532647</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.956384821158899</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6012717460.294483</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003779209122221108</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.588471627604867</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9261012782846052</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.588471627604867</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5675331422.660777</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004116060587480321</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.722237362189589</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8137924044953044</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.722237362189589</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3678329802.836749</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004342806542134231</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9898551115944438</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5.495976232170252</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.255923813224896</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-5.495976232170252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4795664002.950736</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00334833394596505</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7849985893352642</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.837352374791587</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9232967187339775</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.837352374791587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8400204473.552933</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001713940053539687</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.60596717727814</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.766065485043705</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8984733435552794</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.766065485043705</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9673857067.03405</v>
+        <v>2448026844.60282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004311028498746553</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.07023533308111198</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04386978541444658</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1224013477.801421</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5753807115.851252</v>
+        <v>2000495849.361779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005491794417882757</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.125186356011655</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03874471638628519</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1000247964.514689</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5216967399.025534</v>
+        <v>4787483103.194988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003739952612387208</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>0.1322114981856407</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03517614872439796</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2393741621.242325</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4199571044.537888</v>
+        <v>4254284729.043051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004006062491455404</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08143675655136176</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03157396117126604</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2127142351.186901</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5618658697.458601</v>
+        <v>2226069231.726803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002657141914227503</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+        <v>0.1221962782406896</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04116955811075879</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1113034620.673184</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7786871686.392896</v>
+        <v>2903348619.785034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009341534286233536</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>0.0837358053362694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03999196280909701</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1451674283.705755</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6699254493.754585</v>
+        <v>3516134867.47372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003314730778918521</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.1554186579187977</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02578720014199603</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1758067543.693278</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6118504645.232446</v>
+        <v>1452106241.207227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003510453821403364</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
+        <v>0.1371133368870298</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03737953071529858</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>726053222.8228104</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4097879871.567965</v>
+        <v>4770232658.325623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003985285628782197</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1761033873273772</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04779209338094937</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2385116410.374543</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2752211941.776877</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1781355008686749</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0432761989252916</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5105988598.899648</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001027487590335587</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v>1376105896.1177</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8885031742.171171</v>
+        <v>3176405940.683646</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001998828684405919</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
+        <v>0.1800951595816369</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03954415383834558</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1588203004.231566</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4497654557.298835</v>
+        <v>4889357195.116731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004448674863172017</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.06285801649328598</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02050241434892652</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2444678606.92676</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7167325383.375648</v>
+        <v>3204068118.107858</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003254192320370756</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
+        <v>0.1195822162468434</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03269164772189672</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1602034078.385695</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8103386027.431568</v>
+        <v>1312594556.66819</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004194154029951863</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>0.07960002735129966</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0395878998907102</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>656297321.0320203</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5918376863.618972</v>
+        <v>2542448060.009089</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005189987119806944</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
+        <v>0.07574472163027758</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04861611968585826</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1271224056.65448</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6950285565.316858</v>
+        <v>3550331904.798679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002351569540924979</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
+        <v>0.1117689194735855</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05244910621836885</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1775166008.891653</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4735599043.958552</v>
+        <v>2624519395.279335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001117528588206759</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
+        <v>0.1842205899118736</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03409724132241518</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1312259754.70942</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4049070030.756689</v>
+        <v>1021124355.213673</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002023301088207641</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1235789027129612</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01956299663539255</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>510562211.6747729</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4349897978.231746</v>
+        <v>2794818085.255822</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001387768844081041</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1554982858377536</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03141830657971267</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1397408983.931889</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2288642953.474371</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06859645813670637</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03090230558382369</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="n">
-        <v>440</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5614527020.595303</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.005915368361742559</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+      <c r="J21" t="n">
+        <v>1144321484.773343</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5540847269.362275</v>
+        <v>3822443353.55081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003818030959834802</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1124659983902854</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04111421686767386</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1911221688.711457</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6741006468.660361</v>
+        <v>979526217.0565882</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00141676599338246</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
+        <v>0.1766861144916697</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04069471739315515</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>489763181.8488566</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8530896314.279008</v>
+        <v>3552781067.788117</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003689773153156395</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>0.122095960128479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0354834656352617</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1776390531.591581</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5250659728.794621</v>
+        <v>936693228.9885652</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00309039169777421</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.09470728376207165</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02358093587688809</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>468346692.7733333</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4614400148.713411</v>
+        <v>1374308637.418797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009231085778821353</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1197259188367667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02633421315500541</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>687154382.1222073</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5427633259.73565</v>
+        <v>4232962814.273418</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003931154392657862</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
+        <v>0.1023988472189879</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02261329650794641</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2116481405.363959</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5813592099.164111</v>
+        <v>2345492016.576768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005411017810681004</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+        <v>0.1409418260341865</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04368675093264036</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1172745962.351206</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3632620982.845245</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1369897141674948</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0377201188715617</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6647259353.987189</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00158400557603612</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+      <c r="J29" t="n">
+        <v>1816310533.51616</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5966381974.237658</v>
+        <v>1987887327.102166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00338519822720662</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
+        <v>0.1197339914768408</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03746873600769368</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>993943699.2769504</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7215019302.034443</v>
+        <v>1282592193.045924</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002708779284464866</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.08468463723327702</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03938539677108826</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>641296028.2112541</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3540022765.046843</v>
+        <v>1884412567.187583</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001098992340903394</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07992048117129966</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03018510893854093</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>942206431.1162697</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5088336553.16405</v>
+        <v>2037109511.462532</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002803385676569935</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+        <v>0.1381288914366971</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03863793973570645</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1018554833.061288</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7286112070.586582</v>
+        <v>1169781023.514003</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005447221424295879</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
+        <v>0.1149875113451055</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02618896064490596</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>584890521.4474542</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5810867914.002294</v>
+        <v>1333430829.953923</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002578388057110329</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
+        <v>0.0950673046175939</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04373853273831375</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>666715360.0112835</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5773343020.156483</v>
+        <v>2027533522.583569</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002992006816191224</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
+        <v>0.1538589418936011</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02794413365981971</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1013766820.835666</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4831921003.601022</v>
+        <v>2591138228.30059</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004707844109807063</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1036131641606551</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04022380470314289</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1295569222.423169</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4809537143.576887</v>
+        <v>1675985406.431339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003698616891291012</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07386514873889359</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.025471193620299</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>837992727.3006722</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>3927892595.81696</v>
+        <v>1492497817.968954</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002054872376320122</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.133791635482202</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02786298395950965</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>746248980.2051454</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6520120370.628722</v>
+        <v>1763201308.450893</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004870938313357844</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
+        <v>0.1228021759952239</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05192549691238617</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>881600554.212459</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6135307428.954085</v>
+        <v>2553388843.729494</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001440283301222242</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1151236169963975</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04691534387112158</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1276694441.595246</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5309614013.66478</v>
+        <v>4303318612.158427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003491264339882312</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.1113293148324344</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04534528065480169</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2151659355.973037</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6657860692.782111</v>
+        <v>2406410361.677314</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003414413914179956</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
+        <v>0.142176699297831</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0203569476079381</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1203205238.580571</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7478947530.499255</v>
+        <v>2243609260.272715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001723822285713963</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.08949605384029682</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02897622645869666</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1121804784.692926</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5084738048.770262</v>
+        <v>1612294718.03114</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001362169031954104</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1358435019346391</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04294751615579231</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>806147310.3640741</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10150599429.30598</v>
+        <v>5550265709.333698</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005535116549860409</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1369103041765674</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04395474338331869</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2775132912.628146</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9603902678.327766</v>
+        <v>4038134623.938434</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002181879424546279</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1377341095175683</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05592537733336331</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2019067312.917447</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8090860244.088768</v>
+        <v>4390389047.568893</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003605671263864643</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
+        <v>0.09474173357058262</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0299892469274606</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2195194535.171328</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5928045019.766647</v>
+        <v>1544770630.457415</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003850984799015127</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1300052325619635</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04466540491359824</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>772385339.9554811</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5376101990.789022</v>
+        <v>3969345488.468221</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002521583211008842</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
+        <v>0.1404656241499371</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04512258525878693</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1984672734.535731</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5662457622.495993</v>
+        <v>1414557831.643695</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004655490146807829</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1667605725279316</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0541172568234868</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>707278932.3384079</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5243217320.116486</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1254161915482447</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05642296912112041</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>6</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5280542494.096016</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001811618478519497</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
+      <c r="J52" t="n">
+        <v>2621608643.079254</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5163247006.556678</v>
+        <v>3232996372.02271</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002790716948194705</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1970294375977583</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03395078634835078</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1616498202.009952</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4259812931.054973</v>
+        <v>4681291635.614469</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003959876347743727</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1538187024830248</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04154780332906245</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2340645934.806464</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8046803935.401366</v>
+        <v>4551001830.319215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003020616465440714</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
+        <v>0.1947290326689603</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03138652692256833</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2275500914.052469</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5347803826.408728</v>
+        <v>1577058325.725322</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002434573688226229</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1167980659182925</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04260740090959721</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>788529193.3407433</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5442158808.157857</v>
+        <v>3661501564.26439</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004202814082626784</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
+        <v>0.1239910181202645</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02098515010282345</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1830750841.757187</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5521335487.395016</v>
+        <v>1541814813.285194</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001797699388585959</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.184143120192593</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02959977364024369</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>770907433.6425271</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7778088813.546024</v>
+        <v>4374954454.480601</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003388456075596007</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.1195459480551709</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03957187740562926</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2187477184.786673</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4076317579.899315</v>
+        <v>3196043972.806338</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004088520751669944</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.159918790569954</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02598455687275826</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1598022076.908712</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7186229913.129347</v>
+        <v>2381318004.83468</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004473680640280426</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
+        <v>0.1347309086338398</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02830953115619311</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1190659040.948785</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6010256951.33666</v>
+        <v>1925897313.49319</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003585337205274994</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
+        <v>0.1844600518867571</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03309732897567919</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>962948703.4136831</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8672229061.182764</v>
+        <v>4583457269.903623</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00428603537932349</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
+        <v>0.06641762401653332</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03178778979435533</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2291728670.978204</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4236576740.283092</v>
+        <v>5318907819.595945</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003507364101850743</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1433016784671981</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02248109652188294</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2659454038.132641</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6853701531.582135</v>
+        <v>4040731130.174284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004322037747414887</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
+        <v>0.1110805340045926</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02922253669396188</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2020365580.89556</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5671112680.968246</v>
+        <v>5137271333.800941</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002526706795725345</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
+        <v>0.1283375651536774</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04176684807032854</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2568635701.036922</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5117099029.859108</v>
+        <v>3453519952.871284</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005567683320446898</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
+        <v>0.08708383737133196</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04585469986929553</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1726759955.90743</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5843653858.030921</v>
+        <v>5048951167.736481</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002588037477539136</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
+        <v>0.1066882100414628</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03201068542773634</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2524475642.816893</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4461804828.036671</v>
+        <v>2004674545.547545</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008131019294018864</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1481529001955995</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05250912829860368</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1002337277.992895</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7423128083.760631</v>
+        <v>3193575999.855518</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003405237583443044</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
+        <v>0.0711503229409774</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04317805839785052</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1596787989.168932</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4850632289.217124</v>
+        <v>4225455887.967568</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003361977841263093</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1781033622101585</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0289554901701347</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2112727991.569246</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7224911063.819131</v>
+        <v>1863826446.243435</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001635918833701922</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
+        <v>0.07730006412622681</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04722087501252379</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>931913191.091222</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7196176204.092302</v>
+        <v>2549986227.139745</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001393453692161818</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
+        <v>0.108871765514871</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04710548366135409</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1274993150.420492</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6281867697.087639</v>
+        <v>3874811843.477937</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003940977831910075</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4</v>
+        <v>0.1246757460078799</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0355132341266052</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1937405911.194787</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6997198971.889855</v>
+        <v>2502044151.045877</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004547784260710173</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
+        <v>0.1066174004642163</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0283248612048586</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1251021991.964395</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4863156663.783476</v>
+        <v>5032384803.342853</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00264160204810022</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08444626047048778</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03022962956356319</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2516192429.348812</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8065254005.230947</v>
+        <v>1756717813.485179</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005359686230101366</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.170877290851551</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02838082522430518</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>878358932.0056877</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7524576688.693666</v>
+        <v>4151028880.99664</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00349989654875006</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
+        <v>0.09937610459570589</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03953839837286267</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2075514395.090329</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8399047081.875866</v>
+        <v>1301344235.436538</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002338858177791945</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
+        <v>0.1069110377388517</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0352996403184342</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>650672116.8917565</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3955973789.521309</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08896496513441676</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02915540148125598</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5250412628.117867</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.002387605691943572</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
+      <c r="J80" t="n">
+        <v>1977986891.754525</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7105067951.935182</v>
+        <v>4614203212.644864</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004429063312684579</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
+        <v>0.1215118793258996</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02257263294355252</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2307101592.033252</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6360666842.200955</v>
+        <v>4302866461.261333</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004969549694968489</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
+        <v>0.1669420053788142</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02669662234275205</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2151433253.119864</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9278032009.930943</v>
+        <v>1977313740.5134</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002291627630037713</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1200701373168613</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03861236674988981</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>988656852.3881793</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7006026023.864197</v>
+        <v>2307071248.050093</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003864884289469542</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.1031665819527108</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04736945135179899</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1153535583.681502</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4440402734.983311</v>
+        <v>2241209167.22081</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00355458121548195</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1597791734552244</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04315275106980288</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1120604559.691475</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7265424108.098786</v>
+        <v>2293373435.359149</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002071662538024546</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+        <v>0.1659800446619915</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.025278046721341</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1146686785.792428</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5088818938.82225</v>
+        <v>1165787329.43273</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001129859409855172</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1256052854522791</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04325954857971789</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>582893711.1586357</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8079831080.732504</v>
+        <v>2990522601.623407</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004936106425410627</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
+        <v>0.1766386081051119</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03446803629981234</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1495261329.999063</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7163603980.041772</v>
+        <v>2118212670.270872</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004787309037640515</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
+        <v>0.1389021297779693</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02567313063600155</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1059106437.596444</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4738026183.065617</v>
+        <v>2080062504.777793</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00322890142585741</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1301228296950536</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04266786568101256</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1040031336.937275</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7168588381.609647</v>
+        <v>1550860658.533874</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003347362156413904</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
+        <v>0.1896340901063169</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04173464161821887</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>775430361.1191944</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3713037365.536542</v>
+        <v>2665947989.858716</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002759208444599658</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07875758102241251</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04626088570136044</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1332973991.004913</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>8114754420.841228</v>
+        <v>3166228342.395699</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001593311300468935</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5</v>
+        <v>0.1221884118939512</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04911667652543233</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1583114225.3478</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7054305007.243848</v>
+        <v>2449537391.62219</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001096798526823438</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
+        <v>0.1596854304069039</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0352044757308044</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1224768752.369832</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6328319427.937653</v>
+        <v>2331729064.306492</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002726786666829161</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
+        <v>0.1275521712141415</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03474689947582078</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1165864580.106403</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8668140536.540285</v>
+        <v>2077607625.857174</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002485357999881907</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4</v>
+        <v>0.09629801851611734</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.02978071606449803</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1038803791.329744</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6012717460.294483</v>
+        <v>3359379792.745392</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003779209122221108</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1384220331512772</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02278007328859849</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>3</v>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1679689900.977319</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5675331422.660777</v>
+        <v>3888649395.43359</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004116060587480321</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5</v>
+        <v>0.1251384861275791</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02059757402805746</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1944324742.394155</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3678329802.836749</v>
+        <v>2998224663.967993</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004342806542134231</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1331860732420604</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02160005905036482</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1499112317.507333</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4795664002.950736</v>
+        <v>3283313222.569222</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00334833394596505</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1658197142608064</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02749975956328036</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1641656624.417717</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3210564877.748164</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2033195904862971</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05280073140294977</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>8400204473.552933</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001713940053539687</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>4</v>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1605282555.434855</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2448026844.60282</v>
+        <v>1711620717.913301</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07023533308111198</v>
+        <v>0.1070501586926007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04386978541444658</v>
+        <v>0.04260516909235552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1224013477.801421</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2000495849.361779</v>
+        <v>2276243067.2067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125186356011655</v>
+        <v>0.1308996838633047</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03874471638628519</v>
+        <v>0.05034293838589821</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1000247964.514689</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4787483103.194988</v>
+        <v>3589084756.438866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1322114981856407</v>
+        <v>0.1155045048061992</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03517614872439796</v>
+        <v>0.03501168902661317</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2393741621.242325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4254284729.043051</v>
+        <v>3746221543.032695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08143675655136176</v>
+        <v>0.07361567982586498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03157396117126604</v>
+        <v>0.04351416963553105</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2127142351.186901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2226069231.726803</v>
+        <v>2562810415.693393</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1221962782406896</v>
+        <v>0.1310612644227037</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04116955811075879</v>
+        <v>0.05616163637124975</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1113034620.673184</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2903348619.785034</v>
+        <v>3155186801.458253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0837358053362694</v>
+        <v>0.08181088963564641</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03999196280909701</v>
+        <v>0.03532044874979366</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1451674283.705755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3516134867.47372</v>
+        <v>2597999666.326983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1554186579187977</v>
+        <v>0.1460294988339562</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02578720014199603</v>
+        <v>0.02872361997830582</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1758067543.693278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1452106241.207227</v>
+        <v>1982613620.138719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1371133368870298</v>
+        <v>0.1493729205470621</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03737953071529858</v>
+        <v>0.0303416984605933</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>726053222.8228104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4770232658.325623</v>
+        <v>4042323245.584458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1761033873273772</v>
+        <v>0.1464614437017997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04779209338094937</v>
+        <v>0.04660920042454725</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2385116410.374543</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2752211941.776877</v>
+        <v>2786569733.656488</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781355008686749</v>
+        <v>0.1429250436902126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0432761989252916</v>
+        <v>0.04679988203007502</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1376105896.1177</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3176405940.683646</v>
+        <v>2301886333.442979</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1800951595816369</v>
+        <v>0.148690534986563</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03954415383834558</v>
+        <v>0.03535563223132483</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1588203004.231566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4889357195.116731</v>
+        <v>4645888587.942487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06285801649328598</v>
+        <v>0.0891864003409778</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02050241434892652</v>
+        <v>0.02078482727983706</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2444678606.92676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3204068118.107858</v>
+        <v>3676849045.898503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1195822162468434</v>
+        <v>0.1853570888195263</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03269164772189672</v>
+        <v>0.03771152165826887</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1602034078.385695</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1312594556.66819</v>
+        <v>1462666919.557374</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07960002735129966</v>
+        <v>0.09763987275184668</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0395878998907102</v>
+        <v>0.04474346029954038</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>656297321.0320203</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2542448060.009089</v>
+        <v>1884056479.224604</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07574472163027758</v>
+        <v>0.1070900930989547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04861611968585826</v>
+        <v>0.03748310475181585</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1271224056.65448</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3550331904.798679</v>
+        <v>4507681763.333424</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1117689194735855</v>
+        <v>0.1219368463870792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05244910621836885</v>
+        <v>0.03235650069348169</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1775166008.891653</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2624519395.279335</v>
+        <v>3745690155.612268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1842205899118736</v>
+        <v>0.1729778266839377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03409724132241518</v>
+        <v>0.02955470726017017</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1312259754.70942</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1021124355.213673</v>
+        <v>1105697717.875259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1235789027129612</v>
+        <v>0.137924134017959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01956299663539255</v>
+        <v>0.02276304850219285</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>510562211.6747729</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2794818085.255822</v>
+        <v>1712227741.481588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1554982858377536</v>
+        <v>0.09732754578820924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03141830657971267</v>
+        <v>0.02863622210062013</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1397408983.931889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2288642953.474371</v>
+        <v>2326941220.250513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06859645813670637</v>
+        <v>0.08126108391525214</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03090230558382369</v>
+        <v>0.04308365324701484</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1144321484.773343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3822443353.55081</v>
+        <v>3197840039.100848</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1124659983902854</v>
+        <v>0.1335256373661768</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04111421686767386</v>
+        <v>0.04484938423240165</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1911221688.711457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979526217.0565882</v>
+        <v>1175353943.114614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1766861144916697</v>
+        <v>0.1781615942317881</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04069471739315515</v>
+        <v>0.04327066097859506</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489763181.8488566</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3552781067.788117</v>
+        <v>2925269624.15865</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122095960128479</v>
+        <v>0.1115155609251185</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0354834656352617</v>
+        <v>0.02396698117370451</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1776390531.591581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>936693228.9885652</v>
+        <v>1184700651.707825</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09470728376207165</v>
+        <v>0.1178533180800361</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02358093587688809</v>
+        <v>0.02244224893936445</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>468346692.7733333</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1374308637.418797</v>
+        <v>1194911743.482979</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1197259188367667</v>
+        <v>0.1234152028453787</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02633421315500541</v>
+        <v>0.03892015254261735</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>687154382.1222073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4232962814.273418</v>
+        <v>4130070460.904642</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1023988472189879</v>
+        <v>0.1488398400998027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02261329650794641</v>
+        <v>0.01813200145278412</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2116481405.363959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2345492016.576768</v>
+        <v>3351890323.583566</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1409418260341865</v>
+        <v>0.110896605070199</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04368675093264036</v>
+        <v>0.0330237197913412</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1172745962.351206</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3632620982.845245</v>
+        <v>5216855531.65279</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1369897141674948</v>
+        <v>0.1351816550990023</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0377201188715617</v>
+        <v>0.04160969828915823</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1816310533.51616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1987887327.102166</v>
+        <v>1483390380.28696</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197339914768408</v>
+        <v>0.1094259175877375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03746873600769368</v>
+        <v>0.02962841825372454</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>993943699.2769504</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1282592193.045924</v>
+        <v>1088154391.894064</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08468463723327702</v>
+        <v>0.07630380772400631</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03938539677108826</v>
+        <v>0.05008491155585375</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>641296028.2112541</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1884412567.187583</v>
+        <v>1497097162.736121</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07992048117129966</v>
+        <v>0.1060129366000613</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03018510893854093</v>
+        <v>0.03080576169599766</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>942206431.1162697</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2037109511.462532</v>
+        <v>2958042072.049192</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1381288914366971</v>
+        <v>0.1314046187580956</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03863793973570645</v>
+        <v>0.05927095522106245</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1018554833.061288</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1169781023.514003</v>
+        <v>1146997275.315107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1149875113451055</v>
+        <v>0.1154797497569358</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02618896064490596</v>
+        <v>0.02283184142335122</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>584890521.4474542</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1333430829.953923</v>
+        <v>941482343.9905186</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0950673046175939</v>
+        <v>0.1080220488420182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04373853273831375</v>
+        <v>0.04183483699197694</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>666715360.0112835</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2027533522.583569</v>
+        <v>3168085517.100353</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1538589418936011</v>
+        <v>0.1705905246018011</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02794413365981971</v>
+        <v>0.02076081679606827</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1013766820.835666</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2591138228.30059</v>
+        <v>2126106894.46229</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1036131641606551</v>
+        <v>0.1041429572139444</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04022380470314289</v>
+        <v>0.03075971926582533</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1295569222.423169</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1675985406.431339</v>
+        <v>1343151838.446765</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07386514873889359</v>
+        <v>0.0913775628252043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.025471193620299</v>
+        <v>0.02797159680483965</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>837992727.3006722</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1492497817.968954</v>
+        <v>1337169196.453047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.133791635482202</v>
+        <v>0.1451999927657185</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02786298395950965</v>
+        <v>0.0306412102506838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>746248980.2051454</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1763201308.450893</v>
+        <v>1617891976.390474</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1228021759952239</v>
+        <v>0.09901671642436656</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05192549691238617</v>
+        <v>0.03793198979597742</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>881600554.212459</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2553388843.729494</v>
+        <v>2472299950.436131</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151236169963975</v>
+        <v>0.1649945773567299</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04691534387112158</v>
+        <v>0.0339973552951164</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1276694441.595246</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4303318612.158427</v>
+        <v>3620929223.861664</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1113293148324344</v>
+        <v>0.1241637174367784</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04534528065480169</v>
+        <v>0.03479873837593323</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2151659355.973037</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2406410361.677314</v>
+        <v>2080799564.35767</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142176699297831</v>
+        <v>0.2002997044015474</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0203569476079381</v>
+        <v>0.0220464780240737</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1203205238.580571</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2243609260.272715</v>
+        <v>1509091016.529978</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08949605384029682</v>
+        <v>0.08103331752584483</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02897622645869666</v>
+        <v>0.02334347764735661</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1121804784.692926</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1612294718.03114</v>
+        <v>2351439079.72859</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1358435019346391</v>
+        <v>0.1501663941410525</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04294751615579231</v>
+        <v>0.05493199386588315</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>806147310.3640741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5550265709.333698</v>
+        <v>4468189111.504613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369103041765674</v>
+        <v>0.1593957040942909</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04395474338331869</v>
+        <v>0.03918718983432173</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2775132912.628146</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4038134623.938434</v>
+        <v>5191009403.234423</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1377341095175683</v>
+        <v>0.1316359265447126</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05592537733336331</v>
+        <v>0.04255284473226607</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2019067312.917447</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4390389047.568893</v>
+        <v>3492845941.187145</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09474173357058262</v>
+        <v>0.09354350041138726</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0299892469274606</v>
+        <v>0.03221700215909573</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2195194535.171328</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1544770630.457415</v>
+        <v>1534040214.571886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1300052325619635</v>
+        <v>0.1611299157604071</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04466540491359824</v>
+        <v>0.02788707706608261</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>772385339.9554811</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3969345488.468221</v>
+        <v>2584881044.611855</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1404656241499371</v>
+        <v>0.1516727101633015</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04512258525878693</v>
+        <v>0.04678055596722158</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1984672734.535731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1414557831.643695</v>
+        <v>991768745.627406</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1667605725279316</v>
+        <v>0.1449665700422332</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0541172568234868</v>
+        <v>0.04105163641786341</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>707278932.3384079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5243217320.116486</v>
+        <v>4988867826.002411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1254161915482447</v>
+        <v>0.1264198488452803</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05642296912112041</v>
+        <v>0.05905354964037816</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2621608643.079254</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3232996372.02271</v>
+        <v>3227956823.795882</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1970294375977583</v>
+        <v>0.1883737920552259</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03395078634835078</v>
+        <v>0.02248862089483098</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1616498202.009952</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4681291635.614469</v>
+        <v>3871339447.769348</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1538187024830248</v>
+        <v>0.1644160083937528</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04154780332906245</v>
+        <v>0.04408270643334424</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2340645934.806464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4551001830.319215</v>
+        <v>3682293585.636992</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1947290326689603</v>
+        <v>0.1930081506792334</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03138652692256833</v>
+        <v>0.02163310019187778</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2275500914.052469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1577058325.725322</v>
+        <v>1354688131.701069</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1167980659182925</v>
+        <v>0.1096111431512284</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04260740090959721</v>
+        <v>0.03826890902594262</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>788529193.3407433</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3661501564.26439</v>
+        <v>4198714472.269973</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1239910181202645</v>
+        <v>0.1420666919137362</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02098515010282345</v>
+        <v>0.02271527158492923</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1830750841.757187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1541814813.285194</v>
+        <v>1225706929.558237</v>
       </c>
       <c r="F58" t="n">
-        <v>0.184143120192593</v>
+        <v>0.1244597910396641</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02959977364024369</v>
+        <v>0.03323347000464188</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>770907433.6425271</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4374954454.480601</v>
+        <v>4176519160.186077</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1195459480551709</v>
+        <v>0.114649490627053</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03957187740562926</v>
+        <v>0.04284436225895526</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2187477184.786673</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3196043972.806338</v>
+        <v>3062587241.281537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.159918790569954</v>
+        <v>0.1710062831829897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02598455687275826</v>
+        <v>0.02512152170159837</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1598022076.908712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2381318004.83468</v>
+        <v>3128671027.751346</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1347309086338398</v>
+        <v>0.1338466583674215</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02830953115619311</v>
+        <v>0.0264075329333197</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1190659040.948785</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1925897313.49319</v>
+        <v>1474162421.885703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844600518867571</v>
+        <v>0.1773172692119914</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03309732897567919</v>
+        <v>0.03752165162931279</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>962948703.4136831</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4583457269.903623</v>
+        <v>4851451895.960994</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06641762401653332</v>
+        <v>0.09452735189319476</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03178778979435533</v>
+        <v>0.04534475718221632</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2291728670.978204</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5318907819.595945</v>
+        <v>3399114729.801554</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1433016784671981</v>
+        <v>0.1620813961421996</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02248109652188294</v>
+        <v>0.03393361733123829</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2659454038.132641</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4040731130.174284</v>
+        <v>5761020782.366667</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110805340045926</v>
+        <v>0.1675069665815574</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02922253669396188</v>
+        <v>0.03096254968211675</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2020365580.89556</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5137271333.800941</v>
+        <v>4527962469.222448</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1283375651536774</v>
+        <v>0.1442119259902155</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04176684807032854</v>
+        <v>0.03985616728995837</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2568635701.036922</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3453519952.871284</v>
+        <v>3047610293.698006</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08708383737133196</v>
+        <v>0.09295000309881082</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04585469986929553</v>
+        <v>0.03360587946955872</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1726759955.90743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5048951167.736481</v>
+        <v>5150198357.648581</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1066882100414628</v>
+        <v>0.1140445576788574</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03201068542773634</v>
+        <v>0.03386159282454752</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2524475642.816893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2004674545.547545</v>
+        <v>1870888170.55234</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1481529001955995</v>
+        <v>0.1649804735033354</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05250912829860368</v>
+        <v>0.04680119499163711</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1002337277.992895</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3193575999.855518</v>
+        <v>3402037266.503515</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0711503229409774</v>
+        <v>0.0652165335888374</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04317805839785052</v>
+        <v>0.03929785886505727</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1596787989.168932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4225455887.967568</v>
+        <v>5306759326.800534</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1781033622101585</v>
+        <v>0.1846685662370641</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0289554901701347</v>
+        <v>0.02997357653213673</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2112727991.569246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1863826446.243435</v>
+        <v>1743335313.07588</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07730006412622681</v>
+        <v>0.08700903135596001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04722087501252379</v>
+        <v>0.04409716406134906</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>931913191.091222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2549986227.139745</v>
+        <v>3328084827.071906</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108871765514871</v>
+        <v>0.09475471753588287</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04710548366135409</v>
+        <v>0.03856665493320879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1274993150.420492</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3874811843.477937</v>
+        <v>3681744514.40296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1246757460078799</v>
+        <v>0.1497235643689785</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0355132341266052</v>
+        <v>0.02646553780592166</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1937405911.194787</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2502044151.045877</v>
+        <v>2016995050.317772</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066174004642163</v>
+        <v>0.1186327310953941</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0283248612048586</v>
+        <v>0.0376049027393054</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1251021991.964395</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5032384803.342853</v>
+        <v>4643743701.752024</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08444626047048778</v>
+        <v>0.1190095422270094</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03022962956356319</v>
+        <v>0.02884755438912579</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2516192429.348812</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1756717813.485179</v>
+        <v>2174445690.216175</v>
       </c>
       <c r="F77" t="n">
-        <v>0.170877290851551</v>
+        <v>0.1637531648403086</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02838082522430518</v>
+        <v>0.02961740818035918</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>878358932.0056877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4151028880.99664</v>
+        <v>3309866885.725069</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09937610459570589</v>
+        <v>0.1249411052810104</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03953839837286267</v>
+        <v>0.03530060927844556</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2075514395.090329</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1301344235.436538</v>
+        <v>1529777857.27105</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1069110377388517</v>
+        <v>0.1616334271972054</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0352996403184342</v>
+        <v>0.03021755938915808</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>650672116.8917565</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3955973789.521309</v>
+        <v>3972613152.412043</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08896496513441676</v>
+        <v>0.111035975699674</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02915540148125598</v>
+        <v>0.03135867551385878</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1977986891.754525</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4614203212.644864</v>
+        <v>4027313111.450438</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1215118793258996</v>
+        <v>0.1144383025161147</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02257263294355252</v>
+        <v>0.03169809555089564</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2307101592.033252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4302866461.261333</v>
+        <v>5509507634.026086</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1669420053788142</v>
+        <v>0.1432542300938719</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02669662234275205</v>
+        <v>0.01984278127671417</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2151433253.119864</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1977313740.5134</v>
+        <v>2310251896.120241</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1200701373168613</v>
+        <v>0.1470158459280701</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03861236674988981</v>
+        <v>0.03972748252118823</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>988656852.3881793</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2307071248.050093</v>
+        <v>1576850958.153111</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1031665819527108</v>
+        <v>0.1209788753487566</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04736945135179899</v>
+        <v>0.0440739613445856</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1153535583.681502</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2241209167.22081</v>
+        <v>2966834294.422573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1597791734552244</v>
+        <v>0.1322212332179427</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04315275106980288</v>
+        <v>0.043116905583376</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1120604559.691475</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2293373435.359149</v>
+        <v>2656900556.927491</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1659800446619915</v>
+        <v>0.1657394012295527</v>
       </c>
       <c r="G86" t="n">
-        <v>0.025278046721341</v>
+        <v>0.0183250699627487</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1146686785.792428</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1165787329.43273</v>
+        <v>1351604334.642717</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1256052854522791</v>
+        <v>0.1508118025320051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04325954857971789</v>
+        <v>0.03442507214381921</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>582893711.1586357</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2990522601.623407</v>
+        <v>2451453855.894597</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1766386081051119</v>
+        <v>0.1537034864566705</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03446803629981234</v>
+        <v>0.0245089826743428</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1495261329.999063</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2118212670.270872</v>
+        <v>2200707571.994949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389021297779693</v>
+        <v>0.119200773906686</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02567313063600155</v>
+        <v>0.04060164379658942</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1059106437.596444</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2080062504.777793</v>
+        <v>1714118924.583127</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1301228296950536</v>
+        <v>0.1010339984698857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04266786568101256</v>
+        <v>0.04739162464078953</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1040031336.937275</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1550860658.533874</v>
+        <v>1481642349.655252</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1896340901063169</v>
+        <v>0.1433150872617784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04173464161821887</v>
+        <v>0.0452607651809051</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>775430361.1191944</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2665947989.858716</v>
+        <v>2771865086.540667</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07875758102241251</v>
+        <v>0.1104896781614042</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04626088570136044</v>
+        <v>0.04116388547423516</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1332973991.004913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3166228342.395699</v>
+        <v>4492864821.527216</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1221884118939512</v>
+        <v>0.1386093028299022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04911667652543233</v>
+        <v>0.04831647868854177</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1583114225.3478</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2449537391.62219</v>
+        <v>1961255455.337541</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1596854304069039</v>
+        <v>0.1565342388131044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0352044757308044</v>
+        <v>0.03141693241688098</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1224768752.369832</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2331729064.306492</v>
+        <v>2390534779.852797</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1275521712141415</v>
+        <v>0.1090277081433867</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03474689947582078</v>
+        <v>0.05051257379831863</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1165864580.106403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2077607625.857174</v>
+        <v>1647781193.868168</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09629801851611734</v>
+        <v>0.1011039312172563</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02978071606449803</v>
+        <v>0.04040783785949231</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1038803791.329744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3359379792.745392</v>
+        <v>3714081350.454073</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1384220331512772</v>
+        <v>0.1361678506793661</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02278007328859849</v>
+        <v>0.01979476140491535</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1679689900.977319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3888649395.43359</v>
+        <v>3247690062.643903</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1251384861275791</v>
+        <v>0.08763361684075054</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02059757402805746</v>
+        <v>0.02069812069480476</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1944324742.394155</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2998224663.967993</v>
+        <v>2585338063.528635</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1331860732420604</v>
+        <v>0.1217122574524206</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02160005905036482</v>
+        <v>0.02233198672405803</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1499112317.507333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3283313222.569222</v>
+        <v>3743809484.360263</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1658197142608064</v>
+        <v>0.1757418792015073</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02749975956328036</v>
+        <v>0.01883643082476376</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1641656624.417717</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3210564877.748164</v>
+        <v>2435915418.565384</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2033195904862971</v>
+        <v>0.2224619053470511</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05280073140294977</v>
+        <v>0.04387862317677301</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1605282555.434855</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1711620717.913301</v>
+        <v>1837048387.34039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1070501586926007</v>
+        <v>0.086458817678826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04260516909235552</v>
+        <v>0.03058039039545534</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276243067.2067</v>
+        <v>2003928314.448508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308996838633047</v>
+        <v>0.1733071270690387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05034293838589821</v>
+        <v>0.05008121148262858</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3589084756.438866</v>
+        <v>5224583935.503284</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1155045048061992</v>
+        <v>0.1335320921528317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03501168902661317</v>
+        <v>0.02869146741304204</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3746221543.032695</v>
+        <v>2763744618.441871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07361567982586498</v>
+        <v>0.09704692064615431</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04351416963553105</v>
+        <v>0.05033424165997426</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2562810415.693393</v>
+        <v>2587635508.328165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1310612644227037</v>
+        <v>0.1107672588152891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05616163637124975</v>
+        <v>0.05312936210899836</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3155186801.458253</v>
+        <v>2897447923.408522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08181088963564641</v>
+        <v>0.07822148864384058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03532044874979366</v>
+        <v>0.0428197843653028</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2597999666.326983</v>
+        <v>3783748848.357272</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1460294988339562</v>
+        <v>0.150369734217542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02872361997830582</v>
+        <v>0.02338766612242079</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1982613620.138719</v>
+        <v>1536826545.267563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1493729205470621</v>
+        <v>0.1343853539311809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0303416984605933</v>
+        <v>0.03136613252364161</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4042323245.584458</v>
+        <v>3729949023.580282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1464614437017997</v>
+        <v>0.1981044508323392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04660920042454725</v>
+        <v>0.03973940354270724</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2786569733.656488</v>
+        <v>3731264939.617544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1429250436902126</v>
+        <v>0.1279567807160172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04679988203007502</v>
+        <v>0.04378883369067685</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2301886333.442979</v>
+        <v>2488782599.467858</v>
       </c>
       <c r="F12" t="n">
-        <v>0.148690534986563</v>
+        <v>0.1745618947978573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03535563223132483</v>
+        <v>0.04330603510062272</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4645888587.942487</v>
+        <v>5095968912.848415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0891864003409778</v>
+        <v>0.08389888996600209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02078482727983706</v>
+        <v>0.02627407848509331</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3676849045.898503</v>
+        <v>2558482024.6451</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1853570888195263</v>
+        <v>0.1883977137531487</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03771152165826887</v>
+        <v>0.02889009148530466</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1462666919.557374</v>
+        <v>1816676363.054627</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09763987275184668</v>
+        <v>0.08612712785481504</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04474346029954038</v>
+        <v>0.04362712579294657</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1884056479.224604</v>
+        <v>2021757289.610492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1070900930989547</v>
+        <v>0.08047933152897431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03748310475181585</v>
+        <v>0.04317516160976508</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4507681763.333424</v>
+        <v>3409440336.794796</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1219368463870792</v>
+        <v>0.1630311806106577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03235650069348169</v>
+        <v>0.04257487901472677</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3745690155.612268</v>
+        <v>3266230128.036966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1729778266839377</v>
+        <v>0.1450228706711072</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02955470726017017</v>
+        <v>0.02996055212357482</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1105697717.875259</v>
+        <v>893369928.777874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.137924134017959</v>
+        <v>0.1525277975537196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02276304850219285</v>
+        <v>0.02033987532213576</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1712227741.481588</v>
+        <v>2407576026.853204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09732754578820924</v>
+        <v>0.1156677466995797</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02863622210062013</v>
+        <v>0.03011841012826058</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2326941220.250513</v>
+        <v>2146891222.427054</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08126108391525214</v>
+        <v>0.1009580859448313</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04308365324701484</v>
+        <v>0.03965496472515704</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3197840039.100848</v>
+        <v>3835256810.945307</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1335256373661768</v>
+        <v>0.1177126269272049</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04484938423240165</v>
+        <v>0.05448306516229229</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1175353943.114614</v>
+        <v>1066483208.138625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1781615942317881</v>
+        <v>0.1392365665381389</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04327066097859506</v>
+        <v>0.04233447517432475</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2925269624.15865</v>
+        <v>3064191576.478244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1115155609251185</v>
+        <v>0.1385786254282987</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02396698117370451</v>
+        <v>0.02869214856466892</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1184700651.707825</v>
+        <v>1070933295.571707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1178533180800361</v>
+        <v>0.1019101377397095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02244224893936445</v>
+        <v>0.02497803296882546</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1194911743.482979</v>
+        <v>990380059.6383709</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1234152028453787</v>
+        <v>0.1221686052250407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03892015254261735</v>
+        <v>0.0293478870856004</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4130070460.904642</v>
+        <v>4397308221.044872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1488398400998027</v>
+        <v>0.1144915829114444</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01813200145278412</v>
+        <v>0.0206803626823438</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3351890323.583566</v>
+        <v>2521681218.226081</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110896605070199</v>
+        <v>0.103767547357758</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0330237197913412</v>
+        <v>0.04867656885415396</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5216855531.65279</v>
+        <v>5701570714.760439</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1351816550990023</v>
+        <v>0.146473905507196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04160969828915823</v>
+        <v>0.03205354249040072</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1483390380.28696</v>
+        <v>2312151437.211638</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1094259175877375</v>
+        <v>0.1089462058717022</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02962841825372454</v>
+        <v>0.03560364697413552</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1088154391.894064</v>
+        <v>1401802473.107832</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07630380772400631</v>
+        <v>0.07039729853776087</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05008491155585375</v>
+        <v>0.05152668627108491</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1497097162.736121</v>
+        <v>1500175084.773093</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060129366000613</v>
+        <v>0.07593998567581171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03080576169599766</v>
+        <v>0.03152342886664906</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2958042072.049192</v>
+        <v>2223521947.593438</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1314046187580956</v>
+        <v>0.1447009686416132</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05927095522106245</v>
+        <v>0.04799080478330855</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1146997275.315107</v>
+        <v>1336610260.244799</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1154797497569358</v>
+        <v>0.08617298084429484</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02283184142335122</v>
+        <v>0.02270654328975539</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>941482343.9905186</v>
+        <v>1109114404.429054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1080220488420182</v>
+        <v>0.07743961548349725</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04183483699197694</v>
+        <v>0.04136827481036326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3168085517.100353</v>
+        <v>2092370578.25346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1705905246018011</v>
+        <v>0.1390420103574125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02076081679606827</v>
+        <v>0.02445903976843878</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2126106894.46229</v>
+        <v>2792463532.269114</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041429572139444</v>
+        <v>0.08955932829049588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03075971926582533</v>
+        <v>0.02730712102643536</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1343151838.446765</v>
+        <v>1376929374.769479</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0913775628252043</v>
+        <v>0.118656088620063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02797159680483965</v>
+        <v>0.02600842915346941</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1337169196.453047</v>
+        <v>2224247541.666078</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1451999927657185</v>
+        <v>0.1554841722737474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0306412102506838</v>
+        <v>0.03118202829431868</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1617891976.390474</v>
+        <v>1746904586.716003</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09901671642436656</v>
+        <v>0.1124984501012224</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03793198979597742</v>
+        <v>0.04165182873631336</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2472299950.436131</v>
+        <v>1786691833.550256</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1649945773567299</v>
+        <v>0.1392483335507043</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0339973552951164</v>
+        <v>0.02846474779394704</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3620929223.861664</v>
+        <v>2940175276.445271</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1241637174367784</v>
+        <v>0.09165660761925568</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03479873837593323</v>
+        <v>0.03314675484406152</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2080799564.35767</v>
+        <v>2713352174.020987</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2002997044015474</v>
+        <v>0.1260526242160306</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0220464780240737</v>
+        <v>0.02532449819079208</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1509091016.529978</v>
+        <v>1769787359.360634</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08103331752584483</v>
+        <v>0.08841986340541824</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02334347764735661</v>
+        <v>0.02691426265275022</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2351439079.72859</v>
+        <v>1810149747.19821</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1501663941410525</v>
+        <v>0.1913440044750552</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05493199386588315</v>
+        <v>0.04827883523143207</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4468189111.504613</v>
+        <v>4691309113.53319</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1593957040942909</v>
+        <v>0.1108000939161391</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03918718983432173</v>
+        <v>0.05718514528730988</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5191009403.234423</v>
+        <v>3729659730.983607</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1316359265447126</v>
+        <v>0.1494432655989227</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04255284473226607</v>
+        <v>0.04329636120334323</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3492845941.187145</v>
+        <v>4734444332.366802</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09354350041138726</v>
+        <v>0.09917184485152813</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03221700215909573</v>
+        <v>0.03291425014755812</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1534040214.571886</v>
+        <v>1248754262.50267</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1611299157604071</v>
+        <v>0.1585593417710615</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02788707706608261</v>
+        <v>0.04126428325465641</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2584881044.611855</v>
+        <v>3706654988.665033</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1516727101633015</v>
+        <v>0.1406861865160587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04678055596722158</v>
+        <v>0.05066155247435697</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>991768745.627406</v>
+        <v>1138903760.383302</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1449665700422332</v>
+        <v>0.1807496247142622</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04105163641786341</v>
+        <v>0.05140655598882984</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4988867826.002411</v>
+        <v>4515773581.414967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1264198488452803</v>
+        <v>0.1158533471618919</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05905354964037816</v>
+        <v>0.04823351481322595</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3227956823.795882</v>
+        <v>2437608986.528064</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1883737920552259</v>
+        <v>0.1781763731398726</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02248862089483098</v>
+        <v>0.0325314803930979</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3871339447.769348</v>
+        <v>4538855780.67145</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1644160083937528</v>
+        <v>0.1603505486151085</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04408270643334424</v>
+        <v>0.03751308737315001</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3682293585.636992</v>
+        <v>4369026472.222167</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1930081506792334</v>
+        <v>0.1555083882451241</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163310019187778</v>
+        <v>0.02714055825558319</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1354688131.701069</v>
+        <v>1525765645.386981</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1096111431512284</v>
+        <v>0.1628450921798122</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03826890902594262</v>
+        <v>0.04860256083165602</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4198714472.269973</v>
+        <v>4405491371.083647</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1420666919137362</v>
+        <v>0.1276780625627505</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02271527158492923</v>
+        <v>0.0192747438526849</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1225706929.558237</v>
+        <v>1340912551.202394</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1244597910396641</v>
+        <v>0.1269430188035679</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03323347000464188</v>
+        <v>0.03214833235027339</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4176519160.186077</v>
+        <v>5357302062.755866</v>
       </c>
       <c r="F59" t="n">
-        <v>0.114649490627053</v>
+        <v>0.09760694574721983</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04284436225895526</v>
+        <v>0.04115326276531975</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3062587241.281537</v>
+        <v>2864456910.83907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1710062831829897</v>
+        <v>0.1720271857673882</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02512152170159837</v>
+        <v>0.0236128322285977</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3128671027.751346</v>
+        <v>2779769059.501429</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1338466583674215</v>
+        <v>0.1629782084435204</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0264075329333197</v>
+        <v>0.02488807499057874</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1474162421.885703</v>
+        <v>1828740001.856192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1773172692119914</v>
+        <v>0.1872762914174186</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03752165162931279</v>
+        <v>0.04737692420731874</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4851451895.960994</v>
+        <v>4338105438.221048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09452735189319476</v>
+        <v>0.07470937450052191</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04534475718221632</v>
+        <v>0.03545593309450587</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3399114729.801554</v>
+        <v>4747921169.888839</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1620813961421996</v>
+        <v>0.1380647577352571</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03393361733123829</v>
+        <v>0.02337871488983121</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5761020782.366667</v>
+        <v>4653399983.669946</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1675069665815574</v>
+        <v>0.1581505130403666</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03096254968211675</v>
+        <v>0.02234954779969918</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4527962469.222448</v>
+        <v>5282357762.756857</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1442119259902155</v>
+        <v>0.1137199430557373</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03985616728995837</v>
+        <v>0.04436465174182994</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3047610293.698006</v>
+        <v>3077425165.894483</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09295000309881082</v>
+        <v>0.0792984431712366</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03360587946955872</v>
+        <v>0.04510660303154303</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5150198357.648581</v>
+        <v>5029670030.269007</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1140445576788574</v>
+        <v>0.1545691233877849</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03386159282454752</v>
+        <v>0.03197181675489284</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1870888170.55234</v>
+        <v>2292935159.980755</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1649804735033354</v>
+        <v>0.1801297658956737</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04680119499163711</v>
+        <v>0.05834166704258829</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3402037266.503515</v>
+        <v>2530332099.375932</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0652165335888374</v>
+        <v>0.09609142902960185</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03929785886505727</v>
+        <v>0.04654959901899296</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5306759326.800534</v>
+        <v>5042149347.807285</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1846685662370641</v>
+        <v>0.1810752532667791</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02997357653213673</v>
+        <v>0.02204515928263173</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1743335313.07588</v>
+        <v>2127900145.973909</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08700903135596001</v>
+        <v>0.07666833586398215</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04409716406134906</v>
+        <v>0.04821599927919289</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3328084827.071906</v>
+        <v>3265556177.039576</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09475471753588287</v>
+        <v>0.1073467840673456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03856665493320879</v>
+        <v>0.04901450061820444</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3681744514.40296</v>
+        <v>3801458792.164802</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1497235643689785</v>
+        <v>0.1287600407827203</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02646553780592166</v>
+        <v>0.02993926959006111</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2016995050.317772</v>
+        <v>1723639097.562547</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1186327310953941</v>
+        <v>0.1288115870138531</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0376049027393054</v>
+        <v>0.02606747230164656</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4643743701.752024</v>
+        <v>4351440003.855906</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1190095422270094</v>
+        <v>0.1134453364853938</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02884755438912579</v>
+        <v>0.03039981260955559</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2174445690.216175</v>
+        <v>2131898980.045041</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1637531648403086</v>
+        <v>0.1461393819733203</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02961740818035918</v>
+        <v>0.01912345879646455</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3309866885.725069</v>
+        <v>4794246626.308615</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1249411052810104</v>
+        <v>0.09606331197886007</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03530060927844556</v>
+        <v>0.04456053010750335</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529777857.27105</v>
+        <v>1436318165.12203</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1616334271972054</v>
+        <v>0.1194784794920588</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03021755938915808</v>
+        <v>0.02550700948055097</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3972613152.412043</v>
+        <v>4824190794.593109</v>
       </c>
       <c r="F80" t="n">
-        <v>0.111035975699674</v>
+        <v>0.1043534028515491</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03135867551385878</v>
+        <v>0.03569222201601823</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4027313111.450438</v>
+        <v>3569862122.583104</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1144383025161147</v>
+        <v>0.1276186983410402</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03169809555089564</v>
+        <v>0.02109639519249208</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5509507634.026086</v>
+        <v>5256203538.835707</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1432542300938719</v>
+        <v>0.2148856173472309</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01984278127671417</v>
+        <v>0.0282467854022908</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2310251896.120241</v>
+        <v>1926818609.831067</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1470158459280701</v>
+        <v>0.136330422188238</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03972748252118823</v>
+        <v>0.02792981527251448</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1576850958.153111</v>
+        <v>2123819381.94995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1209788753487566</v>
+        <v>0.08564412591848759</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0440739613445856</v>
+        <v>0.0421706577632702</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2966834294.422573</v>
+        <v>2825131335.506073</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1322212332179427</v>
+        <v>0.1841760809189601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.043116905583376</v>
+        <v>0.05000036352971717</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2656900556.927491</v>
+        <v>2157700932.875641</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1657394012295527</v>
+        <v>0.1484578197317369</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0183250699627487</v>
+        <v>0.01946096184040763</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1351604334.642717</v>
+        <v>1059961054.992647</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1508118025320051</v>
+        <v>0.184657118027521</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03442507214381921</v>
+        <v>0.02890154166939116</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2451453855.894597</v>
+        <v>3675957998.274941</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1537034864566705</v>
+        <v>0.1189615270649367</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0245089826743428</v>
+        <v>0.02645634044189116</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2200707571.994949</v>
+        <v>3089931005.953936</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119200773906686</v>
+        <v>0.1386154769929728</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04060164379658942</v>
+        <v>0.03600264548085413</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1714118924.583127</v>
+        <v>1754068429.644666</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1010339984698857</v>
+        <v>0.1000804443064616</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04739162464078953</v>
+        <v>0.04179958343379316</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1481642349.655252</v>
+        <v>2047997270.56081</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1433150872617784</v>
+        <v>0.1249325184393905</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0452607651809051</v>
+        <v>0.04238313508040376</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2771865086.540667</v>
+        <v>1918546203.53792</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1104896781614042</v>
+        <v>0.06921636515551596</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04116388547423516</v>
+        <v>0.04424980630126375</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4492864821.527216</v>
+        <v>3223507761.993485</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1386093028299022</v>
+        <v>0.1183499241605491</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04831647868854177</v>
+        <v>0.04930823683722215</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1961255455.337541</v>
+        <v>1771415302.440933</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1565342388131044</v>
+        <v>0.1644777259045749</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03141693241688098</v>
+        <v>0.03624948928401528</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2390534779.852797</v>
+        <v>3173957219.534781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1090277081433867</v>
+        <v>0.116415534849972</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05051257379831863</v>
+        <v>0.03570166863869455</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1647781193.868168</v>
+        <v>1814451653.598221</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1011039312172563</v>
+        <v>0.1087485740723233</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04040783785949231</v>
+        <v>0.04118195988476078</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3714081350.454073</v>
+        <v>4331915267.79138</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1361678506793661</v>
+        <v>0.159049673528181</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01979476140491535</v>
+        <v>0.02295077396921563</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3247690062.643903</v>
+        <v>3187812921.904958</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08763361684075054</v>
+        <v>0.1160455538844563</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02069812069480476</v>
+        <v>0.02626854684006145</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2585338063.528635</v>
+        <v>3369425410.631983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1217122574524206</v>
+        <v>0.148079048872835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02233198672405803</v>
+        <v>0.03130292465864985</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3743809484.360263</v>
+        <v>4373812576.68232</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1757418792015073</v>
+        <v>0.1440406461051904</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01883643082476376</v>
+        <v>0.02680808078216174</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2435915418.565384</v>
+        <v>2566149624.203104</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2224619053470511</v>
+        <v>0.1632501685151351</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04387862317677301</v>
+        <v>0.0530305636020728</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1837048387.34039</v>
+        <v>1536101217.524829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.086458817678826</v>
+        <v>0.1017981231270726</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03058039039545534</v>
+        <v>0.0370097680232961</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2003928314.448508</v>
+        <v>1911344341.545539</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1733071270690387</v>
+        <v>0.1360659217578316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05008121148262858</v>
+        <v>0.04189828048327753</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5224583935.503284</v>
+        <v>4121519182.429893</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1335320921528317</v>
+        <v>0.1384036649818383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02869146741304204</v>
+        <v>0.02363133061022706</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2763744618.441871</v>
+        <v>2815683782.333702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09704692064615431</v>
+        <v>0.08748399378136038</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05033424165997426</v>
+        <v>0.04398958627226449</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2587635508.328165</v>
+        <v>2612158984.854109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1107672588152891</v>
+        <v>0.1075367031897919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05312936210899836</v>
+        <v>0.05609836904504566</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2897447923.408522</v>
+        <v>3044359068.899787</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07822148864384058</v>
+        <v>0.1014273897419543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0428197843653028</v>
+        <v>0.04175645164972375</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3783748848.357272</v>
+        <v>2598423011.970713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.150369734217542</v>
+        <v>0.1933960401575912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02338766612242079</v>
+        <v>0.02700391559277087</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>71.31535530057747</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1536826545.267563</v>
+        <v>2009938342.915808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1343853539311809</v>
+        <v>0.1675845828262552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03136613252364161</v>
+        <v>0.02979530909379309</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3729949023.580282</v>
+        <v>5933992553.080201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1981044508323392</v>
+        <v>0.2123772643872884</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03973940354270724</v>
+        <v>0.04566520988193927</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0790519027766</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3731264939.617544</v>
+        <v>4221545339.447528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1279567807160172</v>
+        <v>0.1452115719646619</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04378883369067685</v>
+        <v>0.04911981319509796</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>214.7040278178971</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2488782599.467858</v>
+        <v>2337104640.074565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1745618947978573</v>
+        <v>0.1935808673612157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04330603510062272</v>
+        <v>0.04223009273267426</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5095968912.848415</v>
+        <v>4654860943.649593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08389888996600209</v>
+        <v>0.08891897429950729</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02627407848509331</v>
+        <v>0.0200574161675975</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.1613501879712</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2558482024.6451</v>
+        <v>2757721618.582055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1883977137531487</v>
+        <v>0.1802940325642763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02889009148530466</v>
+        <v>0.04159452339971502</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1816676363.054627</v>
+        <v>1307570368.019045</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08612712785481504</v>
+        <v>0.07114699829433577</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04362712579294657</v>
+        <v>0.03586362416642028</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2021757289.610492</v>
+        <v>2599872961.506794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08047933152897431</v>
+        <v>0.09650934026047192</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04317516160976508</v>
+        <v>0.03946989066536765</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3409440336.794796</v>
+        <v>4791739526.508792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1630311806106577</v>
+        <v>0.1721930202854839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04257487901472677</v>
+        <v>0.04528864321812098</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3266230128.036966</v>
+        <v>3697187583.925069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1450228706711072</v>
+        <v>0.1548737997054823</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02996055212357482</v>
+        <v>0.03274201506669968</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>893369928.777874</v>
+        <v>1234940903.300238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1525277975537196</v>
+        <v>0.1706647999420818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02033987532213576</v>
+        <v>0.01963076557539189</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2407576026.853204</v>
+        <v>2709417062.137272</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156677466995797</v>
+        <v>0.1144507118431674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03011841012826058</v>
+        <v>0.02464137683382629</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2146891222.427054</v>
+        <v>1795607719.533086</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1009580859448313</v>
+        <v>0.08904089110174605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03965496472515704</v>
+        <v>0.03613984696597834</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3835256810.945307</v>
+        <v>2539835129.964581</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1177126269272049</v>
+        <v>0.08982775226518439</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05448306516229229</v>
+        <v>0.03492406764705112</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1066483208.138625</v>
+        <v>1363557041.770866</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1392365665381389</v>
+        <v>0.1404894368359447</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04233447517432475</v>
+        <v>0.03597077314973343</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3064191576.478244</v>
+        <v>3723061587.744785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1385786254282987</v>
+        <v>0.1451416329950844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02869214856466892</v>
+        <v>0.02319044596739761</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1070933295.571707</v>
+        <v>1270470942.869943</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1019101377397095</v>
+        <v>0.08670153341868236</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02497803296882546</v>
+        <v>0.02236011608740595</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>990380059.6383709</v>
+        <v>1291025335.086609</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1221686052250407</v>
+        <v>0.08914151819210377</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0293478870856004</v>
+        <v>0.03770725880797612</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4397308221.044872</v>
+        <v>4325319375.346155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1144915829114444</v>
+        <v>0.153227622866434</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0206803626823438</v>
+        <v>0.02653837123326774</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>167.5682429396708</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2521681218.226081</v>
+        <v>3142400431.527138</v>
       </c>
       <c r="F28" t="n">
-        <v>0.103767547357758</v>
+        <v>0.09192247895961191</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04867656885415396</v>
+        <v>0.03761497047576204</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5701570714.760439</v>
+        <v>5506349784.162157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.146473905507196</v>
+        <v>0.1335752027514987</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03205354249040072</v>
+        <v>0.03469481515824349</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9685344547999</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2312151437.211638</v>
+        <v>1725259255.466913</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1089462058717022</v>
+        <v>0.1217825112185639</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03560364697413552</v>
+        <v>0.0395865663542382</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1401802473.107832</v>
+        <v>1131452452.192905</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07039729853776087</v>
+        <v>0.09116306713991069</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05152668627108491</v>
+        <v>0.04966836005539649</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1500175084.773093</v>
+        <v>1300082904.583076</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07593998567581171</v>
+        <v>0.1117716388696373</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03152342886664906</v>
+        <v>0.0362351204892608</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2223521947.593438</v>
+        <v>2331181827.076505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447009686416132</v>
+        <v>0.149377954585547</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04799080478330855</v>
+        <v>0.04806191290412017</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1336610260.244799</v>
+        <v>1247612984.028065</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08617298084429484</v>
+        <v>0.09814599335225747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02270654328975539</v>
+        <v>0.02519815982389401</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1109114404.429054</v>
+        <v>931729828.4248135</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07743961548349725</v>
+        <v>0.0910933005718641</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04136827481036326</v>
+        <v>0.03214306519878102</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2092370578.25346</v>
+        <v>2216784860.206172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1390420103574125</v>
+        <v>0.1331990306301627</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02445903976843878</v>
+        <v>0.01754090111799883</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2792463532.269114</v>
+        <v>2223034299.83826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08955932829049588</v>
+        <v>0.1120158739732101</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02730712102643536</v>
+        <v>0.04056659963110527</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1376929374.769479</v>
+        <v>2064997779.268142</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118656088620063</v>
+        <v>0.09975191227424909</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02600842915346941</v>
+        <v>0.03631306671046585</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2224247541.666078</v>
+        <v>1497445410.779529</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1554841722737474</v>
+        <v>0.1397410053398551</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03118202829431868</v>
+        <v>0.02424704795311427</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1746904586.716003</v>
+        <v>1230163534.456369</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1124984501012224</v>
+        <v>0.10058493619558</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04165182873631336</v>
+        <v>0.0477213293832245</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1786691833.550256</v>
+        <v>2163775773.730385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1392483335507043</v>
+        <v>0.1120581856348494</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02846474779394704</v>
+        <v>0.04579355503006758</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2940175276.445271</v>
+        <v>3072395776.596523</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09165660761925568</v>
+        <v>0.1030871326772204</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03314675484406152</v>
+        <v>0.02861489744980374</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2713352174.020987</v>
+        <v>2969382197.787393</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1260526242160306</v>
+        <v>0.1307151510797157</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02532449819079208</v>
+        <v>0.02189572872611809</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1769787359.360634</v>
+        <v>1968954190.594937</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08841986340541824</v>
+        <v>0.09223420088671645</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02691426265275022</v>
+        <v>0.02328860773790984</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1810149747.19821</v>
+        <v>2064064456.341291</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1913440044750552</v>
+        <v>0.1696414726613198</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04827883523143207</v>
+        <v>0.03848898146551622</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4691309113.53319</v>
+        <v>4355842811.130039</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1108000939161391</v>
+        <v>0.149320982885531</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05718514528730988</v>
+        <v>0.04622712165009196</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3729659730.983607</v>
+        <v>3662092127.841816</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1494432655989227</v>
+        <v>0.1827008609718863</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04329636120334323</v>
+        <v>0.05885448815507062</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13</v>
+      </c>
+      <c r="K47" t="n">
+        <v>130.7399881273882</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4734444332.366802</v>
+        <v>3051082989.532285</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09917184485152813</v>
+        <v>0.0938121540089418</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03291425014755812</v>
+        <v>0.0328564006269031</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13</v>
+      </c>
+      <c r="K48" t="n">
+        <v>102.3180832006555</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1248754262.50267</v>
+        <v>1297327734.2579</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1585593417710615</v>
+        <v>0.1779221239374227</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04126428325465641</v>
+        <v>0.03551859714701113</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3706654988.665033</v>
+        <v>3258219500.010398</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1406861865160587</v>
+        <v>0.1645550448172211</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05066155247435697</v>
+        <v>0.03884113169466006</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13</v>
+      </c>
+      <c r="K50" t="n">
+        <v>118.1186592819299</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138903760.383302</v>
+        <v>1146107409.131727</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1807496247142622</v>
+        <v>0.1314640747539135</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05140655598882984</v>
+        <v>0.04617480549208373</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4515773581.414967</v>
+        <v>4783026437.259412</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1158533471618919</v>
+        <v>0.09108719497883259</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04823351481322595</v>
+        <v>0.0495743688820316</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.5967852857909</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2437608986.528064</v>
+        <v>3116158924.09082</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1781763731398726</v>
+        <v>0.1484401855390094</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0325314803930979</v>
+        <v>0.03117559813796264</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4538855780.67145</v>
+        <v>3599344718.589557</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1603505486151085</v>
+        <v>0.1149203249112059</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03751308737315001</v>
+        <v>0.0505101003370397</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4369026472.222167</v>
+        <v>3677335710.935646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1555083882451241</v>
+        <v>0.1716180768534498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02714055825558319</v>
+        <v>0.02478838322376399</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1525765645.386981</v>
+        <v>1427825341.989346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628450921798122</v>
+        <v>0.1481552054795379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04860256083165602</v>
+        <v>0.05052655222710556</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4405491371.083647</v>
+        <v>2812562877.833453</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276780625627505</v>
+        <v>0.1735824521227798</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0192747438526849</v>
+        <v>0.0238397761811596</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13</v>
+      </c>
+      <c r="K57" t="n">
+        <v>83.44938564341234</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1340912551.202394</v>
+        <v>1517063956.411075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1269430188035679</v>
+        <v>0.1620296951880671</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03214833235027339</v>
+        <v>0.0314252643288646</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5357302062.755866</v>
+        <v>3676381231.168676</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09760694574721983</v>
+        <v>0.08223741240599826</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04115326276531975</v>
+        <v>0.0496347182704412</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864456910.83907</v>
+        <v>2478007665.473751</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1720271857673882</v>
+        <v>0.2016542112043814</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0236128322285977</v>
+        <v>0.03190795381805243</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2779769059.501429</v>
+        <v>2805222026.880338</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1629782084435204</v>
+        <v>0.1668984833738009</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02488807499057874</v>
+        <v>0.0228068828529031</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1828740001.856192</v>
+        <v>1715035808.291469</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1872762914174186</v>
+        <v>0.1876808035882071</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04737692420731874</v>
+        <v>0.03768747795462554</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4338105438.221048</v>
+        <v>4376566281.59625</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07470937450052191</v>
+        <v>0.08687560459468403</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03545593309450587</v>
+        <v>0.03617471753257855</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.4061832912466</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4747921169.888839</v>
+        <v>4962922567.851496</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1380647577352571</v>
+        <v>0.1533071177847267</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02337871488983121</v>
+        <v>0.02209786199834348</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.2053973853442</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4653399983.669946</v>
+        <v>5045565787.470759</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1581505130403666</v>
+        <v>0.1703567615217244</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02234954779969918</v>
+        <v>0.02970742624683254</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>14</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5562134505766</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5282357762.756857</v>
+        <v>4378180189.764724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1137199430557373</v>
+        <v>0.1414516194201243</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04436465174182994</v>
+        <v>0.0484004175410711</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>13</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.7763111062716</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3077425165.894483</v>
+        <v>2400139080.848631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0792984431712366</v>
+        <v>0.09078055692772413</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04510660303154303</v>
+        <v>0.04457071333496942</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5029670030.269007</v>
+        <v>4653784682.890747</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1545691233877849</v>
+        <v>0.1030306172989033</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03197181675489284</v>
+        <v>0.03594424397611882</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.1560108648769</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2292935159.980755</v>
+        <v>1914316719.999956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1801297658956737</v>
+        <v>0.1647567117635735</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05834166704258829</v>
+        <v>0.04464102591127617</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2530332099.375932</v>
+        <v>2955898116.619823</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09609142902960185</v>
+        <v>0.06289161883195285</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04654959901899296</v>
+        <v>0.03952503696757521</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5042149347.807285</v>
+        <v>5056379448.502682</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1810752532667791</v>
+        <v>0.1196819046391754</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02204515928263173</v>
+        <v>0.02451915931147286</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5844993180623</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2127900145.973909</v>
+        <v>1553952027.737422</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07666833586398215</v>
+        <v>0.09522643632132535</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04821599927919289</v>
+        <v>0.03325620109521929</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3265556177.039576</v>
+        <v>2183645152.622595</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1073467840673456</v>
+        <v>0.1009179847187519</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04901450061820444</v>
+        <v>0.04462636674062984</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3801458792.164802</v>
+        <v>3559610764.362137</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1287600407827203</v>
+        <v>0.1679489681295941</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02993926959006111</v>
+        <v>0.02161775265349867</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1723639097.562547</v>
+        <v>1774173388.828856</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1288115870138531</v>
+        <v>0.1147810639529089</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02606747230164656</v>
+        <v>0.03368404149548032</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4351440003.855906</v>
+        <v>4751864478.919464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1134453364853938</v>
+        <v>0.1129374396541389</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03039981260955559</v>
+        <v>0.02376350078659683</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>13</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.671538454155</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2131898980.045041</v>
+        <v>1582434728.439778</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1461393819733203</v>
+        <v>0.1701660245996836</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01912345879646455</v>
+        <v>0.02749975597882739</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4794246626.308615</v>
+        <v>3124943877.568949</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09606331197886007</v>
+        <v>0.1084673859137786</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04456053010750335</v>
+        <v>0.05189068568892395</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1436318165.12203</v>
+        <v>1255114937.956865</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1194784794920588</v>
+        <v>0.1164346756804844</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02550700948055097</v>
+        <v>0.03769347699060589</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4824190794.593109</v>
+        <v>4659183621.787826</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1043534028515491</v>
+        <v>0.08055100834504247</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03569222201601823</v>
+        <v>0.02893786350248115</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3569862122.583104</v>
+        <v>3655623401.13975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1276186983410402</v>
+        <v>0.0945171436177155</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109639519249208</v>
+        <v>0.0290964775856267</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5256203538.835707</v>
+        <v>3830258543.487823</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2148856173472309</v>
+        <v>0.2058543628698519</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0282467854022908</v>
+        <v>0.01961666622927425</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>13</v>
+      </c>
+      <c r="K82" t="n">
+        <v>164.1899663467105</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1926818609.831067</v>
+        <v>1600069974.331269</v>
       </c>
       <c r="F83" t="n">
-        <v>0.136330422188238</v>
+        <v>0.102737258815491</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02792981527251448</v>
+        <v>0.02794020934374591</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2123819381.94995</v>
+        <v>1899394797.458921</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08564412591848759</v>
+        <v>0.0997954940846604</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0421706577632702</v>
+        <v>0.05107505443199935</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2825131335.506073</v>
+        <v>2957549516.278532</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1841760809189601</v>
+        <v>0.1413081820835655</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05000036352971717</v>
+        <v>0.05041822854025799</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2157700932.875641</v>
+        <v>2432218563.731277</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1484578197317369</v>
+        <v>0.1351593568287414</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01946096184040763</v>
+        <v>0.02747114218149715</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1059961054.992647</v>
+        <v>1158877994.151837</v>
       </c>
       <c r="F87" t="n">
-        <v>0.184657118027521</v>
+        <v>0.1557160345807329</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02890154166939116</v>
+        <v>0.03356293118941431</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3675957998.274941</v>
+        <v>2942644696.693087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1189615270649367</v>
+        <v>0.177452865772654</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02645634044189116</v>
+        <v>0.03060954349465223</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3089931005.953936</v>
+        <v>2118436979.099286</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1386154769929728</v>
+        <v>0.1453990758413258</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03600264548085413</v>
+        <v>0.02762133076604309</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1754068429.644666</v>
+        <v>1434205377.976808</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1000804443064616</v>
+        <v>0.08380703759103518</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04179958343379316</v>
+        <v>0.04504876535161174</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2047997270.56081</v>
+        <v>2076466697.605568</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1249325184393905</v>
+        <v>0.1575632268881577</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04238313508040376</v>
+        <v>0.05538769852324527</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1918546203.53792</v>
+        <v>2702825062.827464</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06921636515551596</v>
+        <v>0.08479250073464852</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04424980630126375</v>
+        <v>0.03079466933593107</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3223507761.993485</v>
+        <v>3900121785.363746</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1183499241605491</v>
+        <v>0.1314946224060141</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04930823683722215</v>
+        <v>0.04406777268711636</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1771415302.440933</v>
+        <v>2040071937.500348</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1644777259045749</v>
+        <v>0.1421482151244175</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03624948928401528</v>
+        <v>0.03199876709775983</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3173957219.534781</v>
+        <v>3250154601.416543</v>
       </c>
       <c r="F95" t="n">
-        <v>0.116415534849972</v>
+        <v>0.09347710562720529</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03570166863869455</v>
+        <v>0.04367776794786524</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1814451653.598221</v>
+        <v>2025545411.994662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1087485740723233</v>
+        <v>0.1082346576165868</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04118195988476078</v>
+        <v>0.03063686196182176</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4331915267.79138</v>
+        <v>4283144183.160683</v>
       </c>
       <c r="F97" t="n">
-        <v>0.159049673528181</v>
+        <v>0.1333536241846366</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02295077396921563</v>
+        <v>0.02839264601051896</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3187812921.904958</v>
+        <v>2641883985.890288</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1160455538844563</v>
+        <v>0.09595499688679844</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02626854684006145</v>
+        <v>0.02451895448567365</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="n">
+        <v>67.84278226733018</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3369425410.631983</v>
+        <v>2218806626.349852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.148079048872835</v>
+        <v>0.1202720809332924</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03130292465864985</v>
+        <v>0.03159719633544907</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4373812576.68232</v>
+        <v>3757370710.387302</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1440406461051904</v>
+        <v>0.1415121411630542</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02680808078216174</v>
+        <v>0.02524078815270729</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>14</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2566149624.203104</v>
+        <v>2512643068.165371</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1632501685151351</v>
+        <v>0.1593677827283879</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0530305636020728</v>
+        <v>0.05051023860345488</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
